--- a/clean/unit/clean_unit/08002C.xlsx
+++ b/clean/unit/clean_unit/08002C.xlsx
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D68">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D75">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D85">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>mm;mm^3</t>
         </is>
       </c>
       <c r="D87">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D94">

--- a/clean/unit/clean_unit/08002C.xlsx
+++ b/clean/unit/clean_unit/08002C.xlsx
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>mm;mm^3</t>
+          <t>mm^3</t>
         </is>
       </c>
       <c r="D87">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>cmm</t>
+          <t>10^3/cmm</t>
         </is>
       </c>
       <c r="D97">
@@ -2320,6 +2320,11 @@
           <t>10m3/ul</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
+        </is>
+      </c>
       <c r="D102">
         <v>14</v>
       </c>
@@ -2370,6 +2375,11 @@
           <t>/MM^3</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>mm^3</t>
+        </is>
+      </c>
       <c r="D105">
         <v>9</v>
       </c>
@@ -2423,6 +2433,11 @@
       <c r="B108" t="inlineStr">
         <is>
           <t>mm3</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>mm^3</t>
         </is>
       </c>
       <c r="D108">

--- a/clean/unit/clean_unit/08002C.xlsx
+++ b/clean/unit/clean_unit/08002C.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -662,16 +662,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>k/μL</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D16">
-        <v>82652</v>
+        <v>108604</v>
       </c>
     </row>
     <row r="17">
@@ -682,7 +682,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>*10^3/uL</t>
+          <t>k/μL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>93334</v>
+        <v>82652</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>×10^3/μL</t>
+          <t>*10^3/uL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>102723</v>
+        <v>93334</v>
       </c>
     </row>
     <row r="19">
@@ -722,16 +722,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/ul</t>
+          <t>×10^3/μL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D19">
-        <v>104853</v>
+        <v>102723</v>
       </c>
     </row>
     <row r="20">
@@ -742,16 +742,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>X10^3/μL</t>
+          <t>/ul</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="D20">
-        <v>44543</v>
+        <v>104853</v>
       </c>
     </row>
     <row r="21">
@@ -762,7 +762,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10^3/μl</t>
+          <t>X10^3/μL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>34445</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="22">
@@ -782,7 +782,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10^3 /uL</t>
+          <t>10^3/μl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>29535</v>
+        <v>34445</v>
       </c>
     </row>
     <row r="23">
@@ -802,11 +802,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>10^3 /uL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D23">
-        <v>26147</v>
+        <v>29535</v>
       </c>
     </row>
     <row r="24">
@@ -817,16 +822,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10^/3ul</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1000/ul</t>
+          <t>無</t>
         </is>
       </c>
       <c r="D24">
-        <v>18060</v>
+        <v>26147</v>
       </c>
     </row>
     <row r="25">
@@ -837,7 +837,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>x10^3/μl</t>
+          <t>10^/3ul</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>29139</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="26">
@@ -857,7 +857,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10 3/ul</t>
+          <t>x10^3/μl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>17429</v>
+        <v>29139</v>
       </c>
     </row>
     <row r="27">
@@ -877,7 +877,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>×10^3/μl</t>
+          <t>10 3/ul</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>13095</v>
+        <v>17429</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +897,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>μL</t>
+          <t>×10^3/μl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D28">
-        <v>10963</v>
+        <v>13095</v>
       </c>
     </row>
     <row r="29">
@@ -917,16 +917,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>X10^3/uL</t>
+          <t>μL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="D29">
-        <v>15175</v>
+        <v>10963</v>
       </c>
     </row>
     <row r="30">
@@ -937,7 +937,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>*1000/uL</t>
+          <t>X10^3/uL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>13738</v>
+        <v>15175</v>
       </c>
     </row>
     <row r="31">
@@ -957,16 +957,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>x1000/Cumm</t>
+          <t>*1000/uL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1000/cumm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D31">
-        <v>9812</v>
+        <v>13738</v>
       </c>
     </row>
     <row r="32">
@@ -977,16 +977,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>千/uL</t>
+          <t>x1000/Cumm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>1000/cumm</t>
         </is>
       </c>
       <c r="D32">
-        <v>7531</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="33">
@@ -997,16 +997,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/cu.mm</t>
+          <t>千/uL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>cumm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D33">
-        <v>6988</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="34">
@@ -1017,16 +1017,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>x1000/uL</t>
+          <t>/cu.mm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>cumm</t>
         </is>
       </c>
       <c r="D34">
-        <v>13692</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="35">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10︿3/ul</t>
+          <t>x1000/uL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>5756</v>
+        <v>13692</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>*10^3/UL</t>
+          <t>10︿3/ul</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>8602</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="37">
@@ -1077,11 +1077,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>千/U.dl</t>
+          <t>fL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fl</t>
         </is>
       </c>
       <c r="D37">
-        <v>4675</v>
+        <v>12963</v>
       </c>
     </row>
     <row r="38">
@@ -1092,16 +1097,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>x10^3/cumm</t>
+          <t>*10^3/UL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1000/cumm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D38">
-        <v>4600</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="39">
@@ -1112,16 +1117,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>X 1000/ul</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1000/ul</t>
+          <t>千/U.dl</t>
         </is>
       </c>
       <c r="D39">
-        <v>4146</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="40">
@@ -1132,16 +1132,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>x10^3/cumm</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>1000/cumm</t>
         </is>
       </c>
       <c r="D40">
-        <v>5533</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="41">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>×10^3/ul</t>
+          <t>X 1000/ul</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>4076</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="42">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10^3/UL</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>3750</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="43">
@@ -1192,16 +1192,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/cumm</t>
+          <t>×10^3/ul</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cumm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D43">
-        <v>4373</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="44">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>X10^3/ul</t>
+          <t>10^3/UL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>5327</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="45">
@@ -1232,16 +1232,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>X10^3/UL</t>
+          <t>/cumm</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>cumm</t>
         </is>
       </c>
       <c r="D45">
-        <v>2859</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="46">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10e3/uL</t>
+          <t>X10^3/ul</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="D46">
-        <v>4303</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="47">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>x103/ul</t>
+          <t>X10^3/UL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>2695</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="48">
@@ -1292,16 +1292,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>*10^3／u</t>
+          <t>10e3/uL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1000/u</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D48">
-        <v>2773</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="49">
@@ -1312,16 +1312,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>uL</t>
+          <t>x103/ul</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D49">
-        <v>2612</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="50">
@@ -1332,16 +1332,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>x10^3/uL</t>
+          <t>*10^3／u</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>1000/u</t>
         </is>
       </c>
       <c r="D50">
-        <v>5608</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="51">
@@ -1352,16 +1352,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10x3/uL</t>
+          <t>uL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="D51">
-        <v>1855</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="52">
@@ -1370,8 +1370,18 @@
           <t>08002C</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>x10^3/uL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
+        </is>
+      </c>
       <c r="D52">
-        <v>1791</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="53">
@@ -1382,16 +1392,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>μl</t>
+          <t>10x3/uL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D53">
-        <v>4629</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="54">
@@ -1400,18 +1410,8 @@
           <t>08002C</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>千/cumm</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1000/cumm</t>
-        </is>
-      </c>
       <c r="D54">
-        <v>2505</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="55">
@@ -1422,16 +1422,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/mm</t>
+          <t>μl</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="D55">
-        <v>1445</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="56">
@@ -1442,16 +1442,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10 ^3/uL</t>
+          <t>千/cumm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>1000/cumm</t>
         </is>
       </c>
       <c r="D56">
-        <v>1338</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="57">
@@ -1462,16 +1462,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>/mm</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="D57">
-        <v>1421</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="58">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>x1000/ul</t>
+          <t>10 ^3/uL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D58">
-        <v>2821</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="59">
@@ -1502,11 +1502,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>無單位</t>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
       <c r="D59">
-        <v>1881</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="60">
@@ -1517,7 +1522,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>K/μL</t>
+          <t>x1000/ul</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1526,7 +1531,7 @@
         </is>
       </c>
       <c r="D60">
-        <v>1102</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="61">
@@ -1537,16 +1542,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ul</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ul</t>
+          <t>無單位</t>
         </is>
       </c>
       <c r="D61">
-        <v>1779</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="62">
@@ -1557,16 +1557,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>UL</t>
+          <t>K/μL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D62">
-        <v>1449</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="63">
@@ -1577,16 +1577,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>K/ul</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="D63">
-        <v>1573</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="64">
@@ -1597,16 +1597,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10*3/ul</t>
+          <t>UL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="D64">
-        <v>850</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="65">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>x10^3 /uL</t>
+          <t>K/ul</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>1062</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="66">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>*1000/ul</t>
+          <t>10*3/ul</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>726</v>
+        <v>850</v>
       </c>
     </row>
     <row r="67">
@@ -1657,16 +1657,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/CUMM</t>
+          <t>x10^3 /uL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>cumm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D67">
-        <v>718</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="68">
@@ -1677,16 +1677,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>*10^3/mm^3</t>
+          <t>*1000/ul</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10^3/mm^3</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D68">
-        <v>659</v>
+        <v>726</v>
       </c>
     </row>
     <row r="69">
@@ -1697,16 +1697,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>U/L</t>
+          <t>/CUMM</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>u/l</t>
+          <t>cumm</t>
         </is>
       </c>
       <c r="D69">
-        <v>624</v>
+        <v>718</v>
       </c>
     </row>
     <row r="70">
@@ -1717,11 +1717,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>*10^3/mm^3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D70">
-        <v>414</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71">
@@ -1732,16 +1737,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>*10^3/μl</t>
+          <t>U/L</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>u/l</t>
         </is>
       </c>
       <c r="D71">
-        <v>564</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72">
@@ -1752,16 +1757,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>x10^3/μL</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1000/ul</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D72">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>X10*3/ul</t>
+          <t>*10^3/μl</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="D73">
-        <v>379</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>*10(3)/uL</t>
+          <t>x10^3/μL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="D74">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75">
@@ -1812,16 +1812,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>g/dl</t>
+          <t>X10*3/ul</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>g/dl</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D75">
-        <v>320</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76">
@@ -1832,11 +1832,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/HP</t>
+          <t>*10(3)/uL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D76">
-        <v>267</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77">
@@ -1847,11 +1852,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NNN</t>
+          <t>/cu micron</t>
         </is>
       </c>
       <c r="D77">
-        <v>226</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78">
@@ -1862,16 +1867,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>*10^3 /uL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D78">
-        <v>216</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79">
@@ -1882,16 +1887,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>X10(3)uL</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1000/ul</t>
+          <t>/HP</t>
         </is>
       </c>
       <c r="D79">
-        <v>211</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80">
@@ -1902,16 +1902,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/μl</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ul</t>
+          <t>NNN</t>
         </is>
       </c>
       <c r="D80">
-        <v>169</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81">
@@ -1922,7 +1917,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>千/ul</t>
+          <t>*10^3 /uL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1931,7 +1926,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -1942,16 +1937,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/cmm</t>
+          <t>X10(3)uL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>cmm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D82">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83">
@@ -1962,11 +1957,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/HPF</t>
+          <t>/μl</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ul</t>
         </is>
       </c>
       <c r="D83">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10 3/uL</t>
+          <t>千/ul</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>95</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85">
@@ -1997,16 +1997,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10^3/mm3</t>
+          <t>/cmm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10^3/mm^3</t>
+          <t>cmm</t>
         </is>
       </c>
       <c r="D85">
-        <v>82</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86">
@@ -2017,11 +2017,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Non</t>
+          <t>/HPF</t>
         </is>
       </c>
       <c r="D86">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
@@ -2032,16 +2032,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/mm^3</t>
+          <t>10 3/uL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>mm^3</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D87">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
@@ -2052,16 +2052,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>X103/μl</t>
+          <t>10^3/mm3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>10^3/mm^3</t>
         </is>
       </c>
       <c r="D88">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
@@ -2072,11 +2072,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4000-10000</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="D89">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90">
@@ -2087,16 +2087,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>千/μl</t>
+          <t>/mm^3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>mm^3</t>
         </is>
       </c>
       <c r="D90">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91">
@@ -2107,16 +2107,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cumm</t>
+          <t>/fL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cumm</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D91">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>*10^3/μL</t>
+          <t>X103/μl</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93">
@@ -2147,11 +2147,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>4000-10000</t>
         </is>
       </c>
       <c r="D93">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>千/μl</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>g/dl</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D94">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
@@ -2182,16 +2182,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>10*3/mL</t>
+          <t>Cumm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1000/ml</t>
+          <t>cumm</t>
         </is>
       </c>
       <c r="D95">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -2202,16 +2202,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X 10^3/uL</t>
+          <t>/fl</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="D96">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
@@ -2222,16 +2222,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10x3/cmm</t>
+          <t>*10^3/μL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10^3/cmm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D97">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
@@ -2242,11 +2242,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D98">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -2257,16 +2257,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/10^3μl</t>
+          <t>g/dL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100">
@@ -2277,16 +2277,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>K/UL</t>
+          <t>10*3/mL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>1000/ml</t>
         </is>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>× 10^3/μL</t>
+          <t>X 10^3/uL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D101">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -2317,16 +2317,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10m3/ul</t>
+          <t>10x3/cmm</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1000/ul</t>
+          <t>10^3/cmm</t>
         </is>
       </c>
       <c r="D102">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>10*3/UL</t>
+          <t>/10^3μl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -2372,16 +2372,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/MM^3</t>
+          <t>K/UL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>mm^3</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>x10*3/ul</t>
+          <t>× 10^3/μL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
@@ -2412,16 +2412,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>*10^3/cumm</t>
+          <t>10m3/ul</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1000/cumm</t>
+          <t>1000/ul</t>
         </is>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -2432,15 +2432,110 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>08002C</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>10*3/UL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>08002C</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>/MM^3</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>mm^3</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>08002C</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>x10*3/ul</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1000/ul</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>08002C</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>*10^3/cumm</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1000/cumm</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>08002C</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>mm3</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>mm^3</t>
         </is>
       </c>
-      <c r="D108">
+      <c r="D113">
         <v>6</v>
       </c>
     </row>
